--- a/data/FOREX_7_historical.xlsx
+++ b/data/FOREX_7_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CN24"/>
+  <dimension ref="A1:CO24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -822,6 +822,11 @@
           <t>2021Q3</t>
         </is>
       </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>2021Q4</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1073,7 +1078,7 @@
         <v>10892142.65449332</v>
       </c>
       <c r="CE2" t="n">
-        <v>11016935.35084682</v>
+        <v>11016803.50876764</v>
       </c>
       <c r="CF2" t="n">
         <v>10922515.37438929</v>
@@ -1082,25 +1087,28 @@
         <v>11071545.12888577</v>
       </c>
       <c r="CH2" t="n">
-        <v>10945584.44078453</v>
+        <v>10945584.80915441</v>
       </c>
       <c r="CI2" t="n">
-        <v>11257522.50975758</v>
+        <v>11257522.42728399</v>
       </c>
       <c r="CJ2" t="n">
-        <v>11459203.8640182</v>
+        <v>11459203.93532419</v>
       </c>
       <c r="CK2" t="n">
-        <v>11864529.03421142</v>
+        <v>11864528.99316138</v>
       </c>
       <c r="CL2" t="n">
-        <v>11730642.33724937</v>
+        <v>11730642.36030308</v>
       </c>
       <c r="CM2" t="n">
-        <v>11946273.74150252</v>
+        <v>11946281.74137278</v>
       </c>
       <c r="CN2" t="n">
-        <v>11971228.65675001</v>
+        <v>11970533.75259265</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>12050534.70931398</v>
       </c>
     </row>
     <row r="3">
@@ -1264,13 +1272,16 @@
         <v>216870.6477927097</v>
       </c>
       <c r="CL3" t="n">
-        <v>214890.4620362945</v>
+        <v>214890.4620359521</v>
       </c>
       <c r="CM3" t="n">
-        <v>220772.8151682233</v>
+        <v>218444.0176527824</v>
       </c>
       <c r="CN3" t="n">
-        <v>217188.8529496179</v>
+        <v>214258.1146154655</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>218016.7642364252</v>
       </c>
     </row>
     <row r="4">
@@ -1413,7 +1424,7 @@
         <v>208644.7922258199</v>
       </c>
       <c r="CE4" t="n">
-        <v>209849.2845114666</v>
+        <v>209849.2899951667</v>
       </c>
       <c r="CF4" t="n">
         <v>205441.8944942812</v>
@@ -1425,22 +1436,25 @@
         <v>195267.7482636439</v>
       </c>
       <c r="CI4" t="n">
-        <v>215466.6610814198</v>
+        <v>215466.6476770588</v>
       </c>
       <c r="CJ4" t="n">
-        <v>231102.9248430534</v>
+        <v>231102.894922266</v>
       </c>
       <c r="CK4" t="n">
-        <v>246567.1553914157</v>
+        <v>246567.1229793553</v>
       </c>
       <c r="CL4" t="n">
-        <v>250007.1595713838</v>
+        <v>250007.1830031097</v>
       </c>
       <c r="CM4" t="n">
-        <v>267813.0668928148</v>
+        <v>270007.4596759846</v>
       </c>
       <c r="CN4" t="n">
-        <v>262165.6826728052</v>
+        <v>264291.9668079347</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>286929.9538521374</v>
       </c>
     </row>
     <row r="5">
@@ -1572,13 +1586,16 @@
         <v>271601.7482748029</v>
       </c>
       <c r="CL5" t="n">
-        <v>293317.9076280672</v>
+        <v>293317.9076280459</v>
       </c>
       <c r="CM5" t="n">
-        <v>314240.5196980123</v>
+        <v>314813.5743248848</v>
       </c>
       <c r="CN5" t="n">
-        <v>318989.4321230869</v>
+        <v>320150.2499659339</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>336104.7351771021</v>
       </c>
     </row>
     <row r="6">
@@ -1843,22 +1860,25 @@
         <v>644366.4476582929</v>
       </c>
       <c r="CI6" t="n">
-        <v>643699.3716891188</v>
+        <v>643699.4140373052</v>
       </c>
       <c r="CJ6" t="n">
-        <v>668187.222556722</v>
+        <v>668187.2372529758</v>
       </c>
       <c r="CK6" t="n">
-        <v>715347.5626520131</v>
+        <v>715347.5785981743</v>
       </c>
       <c r="CL6" t="n">
-        <v>686295.3066037947</v>
+        <v>686295.2911704339</v>
       </c>
       <c r="CM6" t="n">
-        <v>688111.3603325115</v>
+        <v>672197.7110121053</v>
       </c>
       <c r="CN6" t="n">
-        <v>697346.3608900434</v>
+        <v>681422.4812614236</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>671770.7548436346</v>
       </c>
     </row>
     <row r="7">
@@ -2123,22 +2143,25 @@
         <v>15589.513238757</v>
       </c>
       <c r="CI7" t="n">
-        <v>17219.46682836717</v>
+        <v>17219.45968022097</v>
       </c>
       <c r="CJ7" t="n">
-        <v>19300.43341038662</v>
+        <v>19300.44462793013</v>
       </c>
       <c r="CK7" t="n">
-        <v>20738.34909460605</v>
+        <v>20738.32377522018</v>
       </c>
       <c r="CL7" t="n">
-        <v>19443.61832522879</v>
+        <v>19443.60206916793</v>
       </c>
       <c r="CM7" t="n">
-        <v>20245.08965697106</v>
+        <v>23130.55030858838</v>
       </c>
       <c r="CN7" t="n">
-        <v>20419.05750903863</v>
+        <v>23772.73586377993</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>24505.45868017829</v>
       </c>
     </row>
     <row r="8">
@@ -2391,7 +2414,7 @@
         <v>6729866.237381794</v>
       </c>
       <c r="CE8" t="n">
-        <v>6754531.189877829</v>
+        <v>6754399.342314948</v>
       </c>
       <c r="CF8" t="n">
         <v>6729797.580761319</v>
@@ -2403,22 +2426,25 @@
         <v>6770172.916103238</v>
       </c>
       <c r="CI8" t="n">
-        <v>6901673.759666258</v>
+        <v>6901673.730207369</v>
       </c>
       <c r="CJ8" t="n">
-        <v>6927226.416775811</v>
+        <v>6927226.42014433</v>
       </c>
       <c r="CK8" t="n">
-        <v>6990974.514108054</v>
+        <v>6990974.501415295</v>
       </c>
       <c r="CL8" t="n">
-        <v>6971791.34197551</v>
+        <v>6971791.327699647</v>
       </c>
       <c r="CM8" t="n">
-        <v>7065048.747138046</v>
+        <v>7070332.207891178</v>
       </c>
       <c r="CN8" t="n">
-        <v>7081393.423185064</v>
+        <v>7087771.50400226</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>7087141.372003513</v>
       </c>
     </row>
     <row r="9">
@@ -2680,25 +2706,28 @@
         <v>2279459.182704447</v>
       </c>
       <c r="CH9" t="n">
-        <v>2197397.97701173</v>
+        <v>2197398.345381604</v>
       </c>
       <c r="CI9" t="n">
-        <v>2272432.384738945</v>
+        <v>2272432.339892589</v>
       </c>
       <c r="CJ9" t="n">
-        <v>2359639.089713406</v>
+        <v>2359639.115487681</v>
       </c>
       <c r="CK9" t="n">
-        <v>2526413.706807172</v>
+        <v>2526413.707785242</v>
       </c>
       <c r="CL9" t="n">
-        <v>2404795.36241805</v>
+        <v>2404795.379894884</v>
       </c>
       <c r="CM9" t="n">
-        <v>2446823.979478256</v>
+        <v>2458880.670945703</v>
       </c>
       <c r="CN9" t="n">
-        <v>2452099.354948829</v>
+        <v>2462440.641540717</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>2486880.944388077</v>
       </c>
     </row>
     <row r="10">
@@ -2963,22 +2992,25 @@
         <v>246406.0743181857</v>
       </c>
       <c r="CI10" t="n">
-        <v>278660.5406491107</v>
+        <v>278660.4991494336</v>
       </c>
       <c r="CJ10" t="n">
-        <v>283154.0746449385</v>
+        <v>283154.1226294843</v>
       </c>
       <c r="CK10" t="n">
-        <v>314627.3219037708</v>
+        <v>314627.3093240536</v>
       </c>
       <c r="CL10" t="n">
-        <v>335819.989840703</v>
+        <v>335819.9705784641</v>
       </c>
       <c r="CM10" t="n">
-        <v>351691.3732369964</v>
+        <v>357572.3182323439</v>
       </c>
       <c r="CN10" t="n">
-        <v>348865.9860562874</v>
+        <v>354766.8732742724</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>362964.8797828681</v>
       </c>
     </row>
     <row r="11">
@@ -3243,22 +3275,25 @@
         <v>486044.645829678</v>
       </c>
       <c r="CI11" t="n">
-        <v>504356.1353324892</v>
+        <v>504356.1468681393</v>
       </c>
       <c r="CJ11" t="n">
-        <v>523642.4132636286</v>
+        <v>523642.4114492753</v>
       </c>
       <c r="CK11" t="n">
-        <v>561388.0281868783</v>
+        <v>561388.0532165297</v>
       </c>
       <c r="CL11" t="n">
-        <v>554281.1888503379</v>
+        <v>554281.236223379</v>
       </c>
       <c r="CM11" t="n">
-        <v>571526.789900688</v>
+        <v>560903.2313292085</v>
       </c>
       <c r="CN11" t="n">
-        <v>572760.5064152376</v>
+        <v>561659.1852608604</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>576219.8463500385</v>
       </c>
     </row>
     <row r="12">
@@ -3472,73 +3507,76 @@
         <v>67.81210337990633</v>
       </c>
       <c r="BR12" t="n">
-        <v>70.99845644529236</v>
+        <v>70.99845806390015</v>
       </c>
       <c r="BS12" t="n">
-        <v>73.36648384505537</v>
+        <v>73.3664964611902</v>
       </c>
       <c r="BT12" t="n">
-        <v>75.89349835520322</v>
+        <v>75.89352380370939</v>
       </c>
       <c r="BU12" t="n">
-        <v>78.48855944839934</v>
+        <v>78.48862094699535</v>
       </c>
       <c r="BV12" t="n">
-        <v>80.93922107489794</v>
+        <v>80.93923345044145</v>
       </c>
       <c r="BW12" t="n">
-        <v>83.1433318375658</v>
+        <v>83.14334248639021</v>
       </c>
       <c r="BX12" t="n">
-        <v>85.27053257939735</v>
+        <v>85.27052715382095</v>
       </c>
       <c r="BY12" t="n">
-        <v>87.39542843061146</v>
+        <v>87.39552671489096</v>
       </c>
       <c r="BZ12" t="n">
-        <v>89.51292840834245</v>
+        <v>89.51300997789589</v>
       </c>
       <c r="CA12" t="n">
-        <v>91.54641946265728</v>
+        <v>91.54651382983772</v>
       </c>
       <c r="CB12" t="n">
-        <v>93.82158438227073</v>
+        <v>93.82165584365598</v>
       </c>
       <c r="CC12" t="n">
-        <v>93.79539249442831</v>
+        <v>93.79542128997556</v>
       </c>
       <c r="CD12" t="n">
-        <v>93.81101312278901</v>
+        <v>93.8107957000468</v>
       </c>
       <c r="CE12" t="n">
-        <v>93.85169711723488</v>
+        <v>93.85056994759903</v>
       </c>
       <c r="CF12" t="n">
-        <v>93.69586227991122</v>
+        <v>93.69582389860595</v>
       </c>
       <c r="CG12" t="n">
-        <v>93.61902723610639</v>
+        <v>93.61892579207637</v>
       </c>
       <c r="CH12" t="n">
-        <v>93.51173761956137</v>
+        <v>93.51155398486958</v>
       </c>
       <c r="CI12" t="n">
-        <v>93.68831485886243</v>
+        <v>93.68812846451678</v>
       </c>
       <c r="CJ12" t="n">
-        <v>93.53708100850521</v>
+        <v>93.53694294078414</v>
       </c>
       <c r="CK12" t="n">
-        <v>93.38232766379973</v>
+        <v>93.37980838121436</v>
       </c>
       <c r="CL12" t="n">
-        <v>93.22559651885575</v>
+        <v>93.23248527772434</v>
       </c>
       <c r="CM12" t="n">
-        <v>93.23017067677468</v>
+        <v>93.24207038042121</v>
       </c>
       <c r="CN12" t="n">
-        <v>93.32512044793421</v>
+        <v>93.29237445941324</v>
+      </c>
+      <c r="CO12" t="n">
+        <v>93.14589225563797</v>
       </c>
     </row>
     <row r="13">
@@ -3681,7 +3719,7 @@
         <v>1.675171097280941</v>
       </c>
       <c r="CE13" t="n">
-        <v>1.699391281183142</v>
+        <v>1.699411618414325</v>
       </c>
       <c r="CF13" t="n">
         <v>1.675360509777554</v>
@@ -3690,25 +3728,28 @@
         <v>1.696977693105016</v>
       </c>
       <c r="CH13" t="n">
-        <v>1.553205428530074</v>
+        <v>1.553205376257482</v>
       </c>
       <c r="CI13" t="n">
-        <v>1.690747422658703</v>
+        <v>1.690747435045266</v>
       </c>
       <c r="CJ13" t="n">
-        <v>1.741018827911955</v>
+        <v>1.741018817078298</v>
       </c>
       <c r="CK13" t="n">
-        <v>1.827890910522973</v>
+        <v>1.827890916847287</v>
       </c>
       <c r="CL13" t="n">
-        <v>1.831872934646839</v>
+        <v>1.83187293104382</v>
       </c>
       <c r="CM13" t="n">
-        <v>1.848047516283149</v>
+        <v>1.828552367857351</v>
       </c>
       <c r="CN13" t="n">
-        <v>1.814256992135518</v>
+        <v>1.789879374167925</v>
+      </c>
+      <c r="CO13" t="n">
+        <v>1.809187471722046</v>
       </c>
     </row>
     <row r="14">
@@ -3851,7 +3892,7 @@
         <v>1.915553246447319</v>
       </c>
       <c r="CE14" t="n">
-        <v>1.904788199518086</v>
+        <v>1.904811044584391</v>
       </c>
       <c r="CF14" t="n">
         <v>1.880902772414437</v>
@@ -3860,25 +3901,28 @@
         <v>1.86052443006449</v>
       </c>
       <c r="CH14" t="n">
-        <v>1.78398649537665</v>
+        <v>1.783986435337202</v>
       </c>
       <c r="CI14" t="n">
-        <v>1.913979393731273</v>
+        <v>1.913979288682996</v>
       </c>
       <c r="CJ14" t="n">
-        <v>2.016745033821369</v>
+        <v>2.016744760164947</v>
       </c>
       <c r="CK14" t="n">
-        <v>2.078187466863945</v>
+        <v>2.078187200869707</v>
       </c>
       <c r="CL14" t="n">
-        <v>2.131231627252955</v>
+        <v>2.13123182281256</v>
       </c>
       <c r="CM14" t="n">
-        <v>2.241812574262434</v>
+        <v>2.260179908036869</v>
       </c>
       <c r="CN14" t="n">
-        <v>2.189964707799499</v>
+        <v>2.20785448895036</v>
+      </c>
+      <c r="CO14" t="n">
+        <v>2.381055785270395</v>
       </c>
     </row>
     <row r="15">
@@ -3989,7 +4033,7 @@
         <v>1.948784250407081</v>
       </c>
       <c r="CE15" t="n">
-        <v>1.931542589410778</v>
+        <v>1.931565704880779</v>
       </c>
       <c r="CF15" t="n">
         <v>1.957668225030556</v>
@@ -3998,25 +4042,28 @@
         <v>1.937045325051874</v>
       </c>
       <c r="CH15" t="n">
-        <v>2.012973430833159</v>
+        <v>2.012973363087234</v>
       </c>
       <c r="CI15" t="n">
-        <v>2.075749063618403</v>
+        <v>2.075749078825523</v>
       </c>
       <c r="CJ15" t="n">
-        <v>2.159350640281854</v>
+        <v>2.159350626845087</v>
       </c>
       <c r="CK15" t="n">
-        <v>2.289191146919006</v>
+        <v>2.28919115483937</v>
       </c>
       <c r="CL15" t="n">
-        <v>2.500441997934489</v>
+        <v>2.500441993020299</v>
       </c>
       <c r="CM15" t="n">
-        <v>2.630448008288226</v>
+        <v>2.635243175578318</v>
       </c>
       <c r="CN15" t="n">
-        <v>2.664634026042296</v>
+        <v>2.674486005242615</v>
+      </c>
+      <c r="CO15" t="n">
+        <v>2.789127148999649</v>
       </c>
     </row>
     <row r="16">
@@ -4269,7 +4316,7 @@
         <v>5.306506323426447</v>
       </c>
       <c r="CE16" t="n">
-        <v>5.505345220345262</v>
+        <v>5.505411104806202</v>
       </c>
       <c r="CF16" t="n">
         <v>5.573023294355331</v>
@@ -4278,25 +4325,28 @@
         <v>5.868763600595398</v>
       </c>
       <c r="CH16" t="n">
-        <v>5.886999009914059</v>
+        <v>5.886998811789143</v>
       </c>
       <c r="CI16" t="n">
-        <v>5.717948786077799</v>
+        <v>5.717949204144782</v>
       </c>
       <c r="CJ16" t="n">
-        <v>5.831009121452357</v>
+        <v>5.831009213416814</v>
       </c>
       <c r="CK16" t="n">
-        <v>6.029295900320234</v>
+        <v>6.029296055582948</v>
       </c>
       <c r="CL16" t="n">
-        <v>5.850449505433638</v>
+        <v>5.850449362371508</v>
       </c>
       <c r="CM16" t="n">
-        <v>5.760050164780215</v>
+        <v>5.626836245491573</v>
       </c>
       <c r="CN16" t="n">
-        <v>5.825186210079137</v>
+        <v>5.692498725162002</v>
+      </c>
+      <c r="CO16" t="n">
+        <v>5.574613666930616</v>
       </c>
     </row>
     <row r="17">
@@ -4549,7 +4599,7 @@
         <v>0.1354673863093533</v>
       </c>
       <c r="CE17" t="n">
-        <v>0.1363225396705721</v>
+        <v>0.1363241710917965</v>
       </c>
       <c r="CF17" t="n">
         <v>0.1436157932326295</v>
@@ -4558,25 +4608,28 @@
         <v>0.1496123196335087</v>
       </c>
       <c r="CH17" t="n">
-        <v>0.1424274174037582</v>
+        <v>0.1424274126104127</v>
       </c>
       <c r="CI17" t="n">
-        <v>0.1529596482124909</v>
+        <v>0.1529595858364669</v>
       </c>
       <c r="CJ17" t="n">
-        <v>0.1684273500970675</v>
+        <v>0.1684274469401359</v>
       </c>
       <c r="CK17" t="n">
-        <v>0.1747928555343994</v>
+        <v>0.1747926427351105</v>
       </c>
       <c r="CL17" t="n">
-        <v>0.1657506704768222</v>
+        <v>0.1657505315733244</v>
       </c>
       <c r="CM17" t="n">
-        <v>0.1694678197992203</v>
+        <v>0.1936213359884344</v>
       </c>
       <c r="CN17" t="n">
-        <v>0.1705677678917718</v>
+        <v>0.1985937833275905</v>
+      </c>
+      <c r="CO17" t="n">
+        <v>0.2033557785716992</v>
       </c>
     </row>
     <row r="18">
@@ -4829,7 +4882,7 @@
         <v>61.78643129141847</v>
       </c>
       <c r="CE18" t="n">
-        <v>61.3104368390311</v>
+        <v>61.30997377723503</v>
       </c>
       <c r="CF18" t="n">
         <v>61.61399045993656</v>
@@ -4838,25 +4891,28 @@
         <v>60.74771625348217</v>
       </c>
       <c r="CH18" t="n">
-        <v>61.8530052253471</v>
+        <v>61.8530031437056</v>
       </c>
       <c r="CI18" t="n">
-        <v>61.30721705139079</v>
+        <v>61.30721723885102</v>
       </c>
       <c r="CJ18" t="n">
-        <v>60.45120148815262</v>
+        <v>60.45120114138497</v>
       </c>
       <c r="CK18" t="n">
-        <v>58.92332088319348</v>
+        <v>58.92332098008135</v>
       </c>
       <c r="CL18" t="n">
-        <v>59.43230678713432</v>
+        <v>59.43230654863743</v>
       </c>
       <c r="CM18" t="n">
-        <v>59.14018797839344</v>
+        <v>59.18437519688622</v>
       </c>
       <c r="CN18" t="n">
-        <v>59.15343885100883</v>
+        <v>59.21015428795855</v>
+      </c>
+      <c r="CO18" t="n">
+        <v>58.81184149053396</v>
       </c>
     </row>
     <row r="19">
@@ -5070,73 +5126,76 @@
         <v>32.18789662009367</v>
       </c>
       <c r="BR19" t="n">
-        <v>29.00154355470763</v>
+        <v>29.00154193609985</v>
       </c>
       <c r="BS19" t="n">
-        <v>26.63351615494464</v>
+        <v>26.6335035388098</v>
       </c>
       <c r="BT19" t="n">
-        <v>24.10650164479679</v>
+        <v>24.10647619629061</v>
       </c>
       <c r="BU19" t="n">
-        <v>21.51144055160066</v>
+        <v>21.51137905300464</v>
       </c>
       <c r="BV19" t="n">
-        <v>19.06077892510205</v>
+        <v>19.06076654955855</v>
       </c>
       <c r="BW19" t="n">
-        <v>16.8566681624342</v>
+        <v>16.8566575136098</v>
       </c>
       <c r="BX19" t="n">
-        <v>14.72946742060264</v>
+        <v>14.72947284617905</v>
       </c>
       <c r="BY19" t="n">
-        <v>12.60457156938854</v>
+        <v>12.60447328510903</v>
       </c>
       <c r="BZ19" t="n">
-        <v>10.48707159165756</v>
+        <v>10.48699002210411</v>
       </c>
       <c r="CA19" t="n">
-        <v>8.453580537342715</v>
+        <v>8.453486170162275</v>
       </c>
       <c r="CB19" t="n">
-        <v>6.178415617729274</v>
+        <v>6.178344156344029</v>
       </c>
       <c r="CC19" t="n">
-        <v>6.20460750557168</v>
+        <v>6.204578710024428</v>
       </c>
       <c r="CD19" t="n">
-        <v>6.188986877210987</v>
+        <v>6.189204299953195</v>
       </c>
       <c r="CE19" t="n">
-        <v>6.148302882765122</v>
+        <v>6.149430052400971</v>
       </c>
       <c r="CF19" t="n">
-        <v>6.304137720088772</v>
+        <v>6.304176101394054</v>
       </c>
       <c r="CG19" t="n">
-        <v>6.380972763893615</v>
+        <v>6.381074207923637</v>
       </c>
       <c r="CH19" t="n">
-        <v>6.488262380438623</v>
+        <v>6.488446015130424</v>
       </c>
       <c r="CI19" t="n">
-        <v>6.311685141137582</v>
+        <v>6.311871535483229</v>
       </c>
       <c r="CJ19" t="n">
-        <v>6.462918991494796</v>
+        <v>6.46305705921586</v>
       </c>
       <c r="CK19" t="n">
-        <v>6.617672336200277</v>
+        <v>6.620191618785647</v>
       </c>
       <c r="CL19" t="n">
-        <v>6.774403481144249</v>
+        <v>6.767514722275672</v>
       </c>
       <c r="CM19" t="n">
-        <v>6.769829323225321</v>
+        <v>6.757929619578787</v>
       </c>
       <c r="CN19" t="n">
-        <v>6.67487955206578</v>
+        <v>6.707625540586763</v>
+      </c>
+      <c r="CO19" t="n">
+        <v>6.854107744362022</v>
       </c>
     </row>
     <row r="20">
@@ -5389,7 +5448,7 @@
         <v>20.28086109795141</v>
       </c>
       <c r="CE20" t="n">
-        <v>20.56000729828578</v>
+        <v>20.56025334734239</v>
       </c>
       <c r="CF20" t="n">
         <v>20.26023869250713</v>
@@ -5398,25 +5457,28 @@
         <v>20.5884468352779</v>
       </c>
       <c r="CH20" t="n">
-        <v>20.07565689068157</v>
+        <v>20.07565958050771</v>
       </c>
       <c r="CI20" t="n">
-        <v>20.18590131860087</v>
+        <v>20.18590106811664</v>
       </c>
       <c r="CJ20" t="n">
-        <v>20.59164945239043</v>
+        <v>20.59164954917895</v>
       </c>
       <c r="CK20" t="n">
-        <v>21.29383896758351</v>
+        <v>21.29383904950164</v>
       </c>
       <c r="CL20" t="n">
-        <v>20.50011664563232</v>
+        <v>20.5001167543288</v>
       </c>
       <c r="CM20" t="n">
-        <v>20.481901155318</v>
+        <v>20.58281165787361</v>
       </c>
       <c r="CN20" t="n">
-        <v>20.48327222925616</v>
+        <v>20.57085082782869</v>
+      </c>
+      <c r="CO20" t="n">
+        <v>20.63710038083159</v>
       </c>
     </row>
     <row r="21">
@@ -5669,7 +5731,7 @@
         <v>2.397907575999875</v>
       </c>
       <c r="CE21" t="n">
-        <v>2.434983280127863</v>
+        <v>2.435012420455015</v>
       </c>
       <c r="CF21" t="n">
         <v>2.386507784177457</v>
@@ -5678,25 +5740,28 @@
         <v>2.512732716479312</v>
       </c>
       <c r="CH21" t="n">
-        <v>2.251191570913726</v>
+        <v>2.251191495150652</v>
       </c>
       <c r="CI21" t="n">
-        <v>2.475327412470892</v>
+        <v>2.475327061965835</v>
       </c>
       <c r="CJ21" t="n">
-        <v>2.470975104422742</v>
+        <v>2.470975507789264</v>
       </c>
       <c r="CK21" t="n">
-        <v>2.651831530746324</v>
+        <v>2.651831433893434</v>
       </c>
       <c r="CL21" t="n">
-        <v>2.862758749146613</v>
+        <v>2.862758579316091</v>
       </c>
       <c r="CM21" t="n">
-        <v>2.943942026166588</v>
+        <v>2.993168301011912</v>
       </c>
       <c r="CN21" t="n">
-        <v>2.914203680000535</v>
+        <v>2.963667958393543</v>
+      </c>
+      <c r="CO21" t="n">
+        <v>3.012023022533008</v>
       </c>
     </row>
     <row r="22">
@@ -5949,7 +6014,7 @@
         <v>4.553317730759117</v>
       </c>
       <c r="CE22" t="n">
-        <v>4.517182752427424</v>
+        <v>4.517236811190081</v>
       </c>
       <c r="CF22" t="n">
         <v>4.508692468568356</v>
@@ -5958,25 +6023,28 @@
         <v>4.638180826310312</v>
       </c>
       <c r="CH22" t="n">
-        <v>4.440554530999902</v>
+        <v>4.440554381554575</v>
       </c>
       <c r="CI22" t="n">
-        <v>4.48016990323877</v>
+        <v>4.480170038531482</v>
       </c>
       <c r="CJ22" t="n">
-        <v>4.569622981469605</v>
+        <v>4.569622937201536</v>
       </c>
       <c r="CK22" t="n">
-        <v>4.731650338316113</v>
+        <v>4.731650565649165</v>
       </c>
       <c r="CL22" t="n">
-        <v>4.725071082342002</v>
+        <v>4.725071476896156</v>
       </c>
       <c r="CM22" t="n">
-        <v>4.784142756708714</v>
+        <v>4.695211811275712</v>
       </c>
       <c r="CN22" t="n">
-        <v>4.784475535786253</v>
+        <v>4.692014548968737</v>
+      </c>
+      <c r="CO22" t="n">
+        <v>4.781695254607023</v>
       </c>
     </row>
     <row r="23">
@@ -6190,73 +6258,76 @@
         <v>10932276.98549128</v>
       </c>
       <c r="BR23" t="n">
-        <v>10934908.87400979</v>
+        <v>10934908.62471806</v>
       </c>
       <c r="BS23" t="n">
-        <v>10977840.97490682</v>
+        <v>10977839.08715248</v>
       </c>
       <c r="BT23" t="n">
-        <v>11004394.96295358</v>
+        <v>11004391.27297584</v>
       </c>
       <c r="BU23" t="n">
-        <v>10724932.77948424</v>
+        <v>10724924.37612207</v>
       </c>
       <c r="BV23" t="n">
-        <v>10911929.48562772</v>
+        <v>10911927.81720251</v>
       </c>
       <c r="BW23" t="n">
-        <v>11132300.79160735</v>
+        <v>11132299.36580568</v>
       </c>
       <c r="BX23" t="n">
-        <v>11307125.08787488</v>
+        <v>11307125.80732242</v>
       </c>
       <c r="BY23" t="n">
-        <v>11456767.4051528</v>
+        <v>11456754.52096785</v>
       </c>
       <c r="BZ23" t="n">
-        <v>11617442.41831934</v>
+        <v>11617431.83181811</v>
       </c>
       <c r="CA23" t="n">
-        <v>11480308.79210548</v>
+        <v>11480296.95807351</v>
       </c>
       <c r="CB23" t="n">
-        <v>11410109.27042794</v>
+        <v>11410100.57966026</v>
       </c>
       <c r="CC23" t="n">
-        <v>11435766.96420626</v>
+        <v>11435763.45338277</v>
       </c>
       <c r="CD23" t="n">
-        <v>11610729.15845884</v>
+        <v>11610756.06833157</v>
       </c>
       <c r="CE23" t="n">
-        <v>11738663.96585776</v>
+        <v>11738664.4693994</v>
       </c>
       <c r="CF23" t="n">
-        <v>11657414.86188459</v>
+        <v>11657419.63719666</v>
       </c>
       <c r="CG23" t="n">
-        <v>11826169.80302885</v>
+        <v>11826182.6176848</v>
       </c>
       <c r="CH23" t="n">
-        <v>11705038.01920035</v>
+        <v>11705061.399071</v>
       </c>
       <c r="CI23" t="n">
-        <v>12015930.19013799</v>
+        <v>12015954.00803383</v>
       </c>
       <c r="CJ23" t="n">
-        <v>12250974.41620637</v>
+        <v>12250992.57581972</v>
       </c>
       <c r="CK23" t="n">
-        <v>12705325.86950152</v>
+        <v>12705668.60099514</v>
       </c>
       <c r="CL23" t="n">
-        <v>12583070.28893801</v>
+        <v>12582140.57617301</v>
       </c>
       <c r="CM23" t="n">
-        <v>12813742.21969386</v>
+        <v>12812115.4888912</v>
       </c>
       <c r="CN23" t="n">
-        <v>12827445.17155884</v>
+        <v>12831202.7879625</v>
+      </c>
+      <c r="CO23" t="n">
+        <v>12937269.07059026</v>
       </c>
     </row>
     <row r="24">
@@ -6470,73 +6541,76 @@
         <v>3518870.014312224</v>
       </c>
       <c r="BR24" t="n">
-        <v>3171292.359763539</v>
+        <v>3171292.110471809</v>
       </c>
       <c r="BS24" t="n">
-        <v>2923785.049515938</v>
+        <v>2923783.161761601</v>
       </c>
       <c r="BT24" t="n">
-        <v>2652774.65274434</v>
+        <v>2652770.962766604</v>
       </c>
       <c r="BU24" t="n">
-        <v>2307087.539057885</v>
+        <v>2307079.135695711</v>
       </c>
       <c r="BV24" t="n">
-        <v>2079898.755718525</v>
+        <v>2079897.087293311</v>
       </c>
       <c r="BW24" t="n">
-        <v>1876535.003285287</v>
+        <v>1876533.577483619</v>
       </c>
       <c r="BX24" t="n">
-        <v>1665479.306025318</v>
+        <v>1665480.025472859</v>
       </c>
       <c r="BY24" t="n">
-        <v>1444076.447120863</v>
+        <v>1444063.562935914</v>
       </c>
       <c r="BZ24" t="n">
-        <v>1218329.503528742</v>
+        <v>1218318.917027512</v>
       </c>
       <c r="CA24" t="n">
-        <v>970497.1496762735</v>
+        <v>970485.3156443047</v>
       </c>
       <c r="CB24" t="n">
-        <v>704963.9731640957</v>
+        <v>704955.2823964161</v>
       </c>
       <c r="CC24" t="n">
-        <v>709544.4553808281</v>
+        <v>709540.9445573417</v>
       </c>
       <c r="CD24" t="n">
-        <v>718586.5039655274</v>
+        <v>718613.4138382539</v>
       </c>
       <c r="CE24" t="n">
-        <v>721728.6150109434</v>
+        <v>721860.9606317617</v>
       </c>
       <c r="CF24" t="n">
-        <v>734899.4874953008</v>
+        <v>734904.2628073691</v>
       </c>
       <c r="CG24" t="n">
-        <v>754624.674143082</v>
+        <v>754637.4887990332</v>
       </c>
       <c r="CH24" t="n">
-        <v>759453.5784158144</v>
+        <v>759476.5899165918</v>
       </c>
       <c r="CI24" t="n">
-        <v>758407.6803804043</v>
+        <v>758431.5807498437</v>
       </c>
       <c r="CJ24" t="n">
-        <v>791770.5521881699</v>
+        <v>791788.6404955273</v>
       </c>
       <c r="CK24" t="n">
-        <v>840796.8352900996</v>
+        <v>841139.6078337597</v>
       </c>
       <c r="CL24" t="n">
-        <v>852427.9516886445</v>
+        <v>851498.2158699296</v>
       </c>
       <c r="CM24" t="n">
-        <v>867468.4781913379</v>
+        <v>865833.7475184199</v>
       </c>
       <c r="CN24" t="n">
-        <v>856216.5148088301</v>
+        <v>860669.0353698535</v>
+      </c>
+      <c r="CO24" t="n">
+        <v>886734.3612762793</v>
       </c>
     </row>
   </sheetData>
